--- a/data/trans_orig/P14C10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A492A8A-06B5-47AE-8CAF-72B9016E3B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D0D96A-41DC-4C2C-9E9D-EE19B8BE69DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2AE4077B-C20D-4B85-9CC8-EF4986C38D3A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC3EAB7E-CD86-4111-9C53-D1EDABF21576}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -131,34 +131,34 @@
     <t>33,86%</t>
   </si>
   <si>
-    <t>82,79%</t>
+    <t>83,53%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>50,2%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>52,16%</t>
@@ -167,13 +167,13 @@
     <t>15,94%</t>
   </si>
   <si>
-    <t>65,92%</t>
+    <t>66,29%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>63,6%</t>
+    <t>63,65%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -182,49 +182,43 @@
     <t>82,03%</t>
   </si>
   <si>
-    <t>48,1%</t>
-  </si>
-  <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>51,9%</t>
-  </si>
-  <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -233,13 +227,13 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>35,53%</t>
+    <t>32,12%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>19,14%</t>
+    <t>19,17%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -248,70 +242,70 @@
     <t>78,74%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>38,52%</t>
+    <t>39,02%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>19,17%</t>
+    <t>19,83%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>33,51%</t>
+    <t>33,04%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>16,56%</t>
+    <t>14,4%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -320,76 +314,79 @@
     <t>68,3%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>70,93%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>25,39%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>3,59%</t>
   </si>
   <si>
     <t>11,05%</t>
@@ -398,79 +395,82 @@
     <t>72,23%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>26,27%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5106EC-7BFB-4AFF-AE13-85DDAC50E2B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DCF8A1-1766-497A-957E-2A6923019206}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1622,7 +1622,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1634,13 +1634,13 @@
         <v>10532</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -1649,13 +1649,13 @@
         <v>20760</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1670,13 @@
         <v>2241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1685,13 +1685,13 @@
         <v>3170</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1700,13 +1700,13 @@
         <v>5411</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,7 +1727,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1736,13 +1736,13 @@
         <v>1039</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1751,13 +1751,13 @@
         <v>1039</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,7 +1813,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1825,13 +1825,13 @@
         <v>22564</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -1840,13 +1840,13 @@
         <v>13518</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -1855,13 +1855,13 @@
         <v>36082</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1876,13 @@
         <v>5065</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -1891,13 +1891,13 @@
         <v>2137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -1906,13 +1906,13 @@
         <v>7202</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1927,13 @@
         <v>1026</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1942,13 +1942,13 @@
         <v>1097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -1957,13 +1957,13 @@
         <v>2123</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,7 +2019,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2031,13 +2031,13 @@
         <v>55637</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H24" s="7">
         <v>67</v>
@@ -2046,13 +2046,13 @@
         <v>80689</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -2061,13 +2061,13 @@
         <v>136325</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2082,13 @@
         <v>20684</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2097,13 +2097,13 @@
         <v>22929</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2112,13 +2112,13 @@
         <v>43613</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2133,13 @@
         <v>5143</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2148,13 +2148,13 @@
         <v>7111</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2163,13 +2163,13 @@
         <v>12253</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2237,13 @@
         <v>91515</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H28" s="7">
         <v>96</v>
@@ -2252,13 +2252,13 @@
         <v>111537</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M28" s="7">
         <v>188</v>
@@ -2267,13 +2267,13 @@
         <v>203052</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2288,13 @@
         <v>27989</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -2303,13 +2303,13 @@
         <v>31076</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -2318,10 +2318,10 @@
         <v>59065</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>135</v>

--- a/data/trans_orig/P14C10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C10-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D0D96A-41DC-4C2C-9E9D-EE19B8BE69DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E622409-2FE0-4EAA-8D84-37A86AC3371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC3EAB7E-CD86-4111-9C53-D1EDABF21576}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFF34538-08AC-44CA-B8D7-238B96C2352B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="146">
-  <si>
-    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 3,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="148">
+  <si>
+    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2016 (Tasa respuesta: 3,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -131,34 +131,34 @@
     <t>33,86%</t>
   </si>
   <si>
-    <t>83,53%</t>
+    <t>83,75%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>50,2%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>52,16%</t>
@@ -167,13 +167,13 @@
     <t>15,94%</t>
   </si>
   <si>
-    <t>66,29%</t>
+    <t>66,16%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>63,65%</t>
+    <t>63,44%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -182,43 +182,49 @@
     <t>82,03%</t>
   </si>
   <si>
+    <t>51,62%</t>
+  </si>
+  <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
+    <t>48,38%</t>
+  </si>
+  <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -227,13 +233,13 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>32,12%</t>
+    <t>32,08%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>19,17%</t>
+    <t>20,57%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -242,70 +248,70 @@
     <t>78,74%</t>
   </si>
   <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>39,02%</t>
+    <t>39,14%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>19,83%</t>
+    <t>17,79%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>33,04%</t>
+    <t>29,56%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>14,4%</t>
+    <t>16,18%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -314,163 +320,163 @@
     <t>68,3%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>70,93%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>25,39%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -885,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DCF8A1-1766-497A-957E-2A6923019206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792F3EF1-8217-46A1-9D8C-8FEE56111669}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1622,7 +1628,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1634,13 +1640,13 @@
         <v>10532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -1649,13 +1655,13 @@
         <v>20760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1676,13 @@
         <v>2241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1685,13 +1691,13 @@
         <v>3170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1700,13 +1706,13 @@
         <v>5411</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,7 +1733,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1736,13 +1742,13 @@
         <v>1039</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1751,13 +1757,13 @@
         <v>1039</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,7 +1819,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1825,13 +1831,13 @@
         <v>22564</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -1840,13 +1846,13 @@
         <v>13518</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -1855,13 +1861,13 @@
         <v>36082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1882,13 @@
         <v>5065</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -1891,13 +1897,13 @@
         <v>2137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -1906,13 +1912,13 @@
         <v>7202</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1933,13 @@
         <v>1026</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1942,13 +1948,13 @@
         <v>1097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -1957,13 +1963,13 @@
         <v>2123</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,7 +2025,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2031,13 +2037,13 @@
         <v>55637</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H24" s="7">
         <v>67</v>
@@ -2046,13 +2052,13 @@
         <v>80689</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -2061,13 +2067,13 @@
         <v>136325</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2088,13 @@
         <v>20684</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2097,13 +2103,13 @@
         <v>22929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2112,13 +2118,13 @@
         <v>43613</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2139,13 @@
         <v>5143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2148,13 +2154,13 @@
         <v>7111</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -2163,13 +2169,13 @@
         <v>12253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2243,13 @@
         <v>91515</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H28" s="7">
         <v>96</v>
@@ -2252,13 +2258,13 @@
         <v>111537</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>188</v>
@@ -2267,13 +2273,13 @@
         <v>203052</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2294,13 @@
         <v>27989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -2303,13 +2309,13 @@
         <v>31076</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -2318,13 +2324,13 @@
         <v>59065</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2345,13 @@
         <v>7187</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2354,13 +2360,13 @@
         <v>12075</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -2369,13 +2375,13 @@
         <v>19262</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,7 +2437,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
